--- a/src/tests/resources/JATDataProvider.xlsx
+++ b/src/tests/resources/JATDataProvider.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="420" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 

--- a/src/tests/resources/JATDataProvider.xlsx
+++ b/src/tests/resources/JATDataProvider.xlsx
@@ -8,14 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="ProjectData" sheetId="1" r:id="rId1"/>
+    <sheet name="PlayerData" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Powers of two: 0, 1, 2, 4, 8, 16</t>
   </si>
@@ -42,16 +43,81 @@
   </si>
   <si>
     <t>a12347</t>
+  </si>
+  <si>
+    <t>player1@yopmail.com</t>
+  </si>
+  <si>
+    <t>Scrum Master</t>
+  </si>
+  <si>
+    <t>player2@yopmail.com</t>
+  </si>
+  <si>
+    <t>player3@yopmail.com</t>
+  </si>
+  <si>
+    <t>player4@yopmail.com</t>
+  </si>
+  <si>
+    <t>Product Owner</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>Stakeholder</t>
+  </si>
+  <si>
+    <t>User Story Title</t>
+  </si>
+  <si>
+    <t>User Story 1</t>
+  </si>
+  <si>
+    <t>User Story 2</t>
+  </si>
+  <si>
+    <t>User Story 3</t>
+  </si>
+  <si>
+    <t>User Story 4</t>
+  </si>
+  <si>
+    <t>User Story 5</t>
+  </si>
+  <si>
+    <t>Email Player</t>
+  </si>
+  <si>
+    <t>Role Player</t>
+  </si>
+  <si>
+    <t>Project Title</t>
+  </si>
+  <si>
+    <t>Iteration Length</t>
+  </si>
+  <si>
+    <t>Point Scale</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -74,13 +140,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -380,45 +449,165 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3:A5" r:id="rId2" display="player1@yopmail.com"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="A4" r:id="rId4"/>
+    <hyperlink ref="A5" r:id="rId5"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
